--- a/spreadsheet/macrofree/resiliency_checklist.es.xlsx
+++ b/spreadsheet/macrofree/resiliency_checklist.es.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1099,17 +1064,17 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Conjuntos de escalado de VM</t>
+          <t>Conjuntos de escalado de máquinas virtuales</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Habilitar reparaciones automáticas de instancias para mejorar la resistencia de VM Scale Sets</t>
+          <t>Habilitación de las reparaciones automáticas de instancias para mejorar la resistencia de los conjuntos de escalado de máquinas virtuales</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Las reparaciones automáticas de instancias garantizan que las instancias en mal estado se identifiquen y reemplacen rápidamente, manteniendo un conjunto de instancias en buen estado dentro de su conjunto de escalado.</t>
+          <t>Las reparaciones automáticas de instancias garantizan que las instancias incorrectas se identifiquen y reemplacen rápidamente, manteniendo un conjunto de instancias en buen estado dentro del conjunto de escalado.</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1154,12 +1119,12 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de Copia de seguridad de Azure para cumplir sus requisitos de resistencia para máquinas virtuales de Azure</t>
+          <t>Considere la posibilidad de que Azure Backup cumpla los requisitos de resistencia de las máquinas virtuales de Azure</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que Copia de seguridad de Azure se utiliza correctamente para cumplir los requisitos de resistencia de su organización para máquinas virtuales (VM) de Azure.</t>
+          <t>Asegúrese de que Azure Backup se usa correctamente para cumplir los requisitos de resistencia de su organización para las máquinas virtuales (VM) de Azure.</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1204,12 +1169,12 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Usar discos Premium o Ultra para máquinas virtuales de producción</t>
+          <t>Uso de discos Premium o Ultra para máquinas virtuales de producción</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Se garantiza que las máquinas virtuales de instancia única que usan SSD Premium o Ultra Disk para todos los discos del sistema operativo y discos de datos tienen una conectividad de máquina virtual de al menos el 99,9 %</t>
+          <t>Se garantiza que las máquinas virtuales de instancia única que utilizan SSD prémium o disco Ultra para todos los discos del sistema operativo y discos de datos tienen una conectividad de máquina virtual de al menos el 99,9 %</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1259,7 +1224,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Azure replica automáticamente los discos administrados dentro de una región para garantizar la durabilidad de los datos y protegerlos contra errores de punto único.</t>
+          <t>Azure replica automáticamente los discos administrados dentro de una región para garantizar la durabilidad de los datos y protegerlos contra errores de un solo punto.</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1304,12 +1269,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>No utilice el disco temporal para nada que no sea aceptable perderse</t>
+          <t>No utilice el disco temporal para que se pierda nada que no sea aceptable</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Los discos temporales están diseñados para el almacenamiento a corto plazo de datos no persistentes, como archivos de paginación, archivos de intercambio o tempdb de SQL Server. El almacenamiento de datos persistentes en discos temporales puede provocar la pérdida de datos durante eventos de mantenimiento o reimplementación de máquinas virtuales.</t>
+          <t>Los discos temporales están pensados para el almacenamiento a corto plazo de datos no persistentes, como archivos de paginación, archivos de intercambio o tempdb de SQL Server. El almacenamiento de datos persistentes en discos temporales puede provocar la pérdida de datos durante los eventos de mantenimiento o la reimplementación de la máquina virtual.</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1354,12 +1319,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad para sus máquinas virtuales en las regiones donde son compatibles</t>
+          <t>Aproveche las zonas de disponibilidad para las máquinas virtuales en las regiones en las que se admiten</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Coubique sus recursos informáticos, de almacenamiento, de red y de datos en una zona de disponibilidad, y replique esta disposición en otras zonas de disponibilidad.</t>
+          <t>Coloque conjuntamente sus recursos informáticos, de almacenamiento, de redes y de datos en una zona de disponibilidad y replique esta disposición en otras zonas de disponibilidad.</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1404,12 +1369,12 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Para las regiones que no admiten zonas de disponibilidad, implemente máquinas virtuales en conjuntos de disponibilidad</t>
+          <t>En el caso de las regiones que no admiten zonas de disponibilidad, implemente máquinas virtuales en conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Use al menos dos máquinas virtuales en conjuntos de disponibilidad para aislar máquinas virtuales en diferentes dominios de error y actualización.</t>
+          <t>Use al menos dos máquinas virtuales en conjuntos de disponibilidad para aislar las máquinas virtuales en diferentes dominios de errores y actualizaciones.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1459,7 +1424,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Azure proporciona varias opciones para que la redundancia de máquinas virtuales cumpla diferentes requisitos (zonas de disponibilidad, conjuntos de escalado de máquinas virtuales, conjuntos de disponibilidad, recuperación de sitios de Azure)</t>
+          <t>Azure proporciona varias opciones para que la redundancia de máquinas virtuales cumpla diferentes requisitos (zonas de disponibilidad, conjuntos de escalado de máquinas virtuales, conjuntos de disponibilidad, Azure Site Recovery)</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1504,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Para máquinas virtuales locales y de Azure (Hyper-V/Phyiscal/VMware) con bajos requisitos de RTO, use Azure Site Recovery</t>
+          <t>En el caso de Azure y máquinas virtuales locales (Hyper-V/Phyiscal/VMware) con requisitos bajos de RTO, use Azure Site Recovery</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery le permite lograr un RTO (objetivo de tiempo de recuperación) bajo para sus máquinas virtuales híbridas y de Azure al proporcionar funcionalidades de replicación y conmutación por error continuas.</t>
+          <t>Azure Site Recovery permite lograr un RTO (objetivo de tiempo de recuperación) bajo para las máquinas virtuales híbridas y de Azure al proporcionar funcionalidades de replicación y conmutación por error continuas.</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1554,12 +1519,12 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Usar reservas de capacidad para cargas de trabajo críticas que requieren capacidad garantizada</t>
+          <t>Utilice las reservas de capacidad para cargas de trabajo críticas que requieren capacidad garantizada</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Mediante el uso de reservas de capacidad, puede administrar eficazmente la capacidad de las cargas de trabajo críticas, lo que garantiza la disponibilidad de recursos en regiones específicas.</t>
+          <t>Mediante el uso de reservas de capacidad, puede administrar de forma eficaz la capacidad de las cargas de trabajo críticas, lo que garantiza la disponibilidad de los recursos en las regiones especificadas.</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1604,12 +1569,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Aumentar las cuotas en la región DR antes de probar la conmutación por error con ASR</t>
+          <t>Aumento de las cuotas en la región de recuperación ante desastres antes de probar la conmutación por error con ASR</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Al asegurarse de que se aumentan las cuotas necesarias en la región de recuperación ante desastres antes de probar la conmutación por error con ASR, puede evitar posibles restricciones de recursos durante el proceso de recuperación de máquinas virtuales por error.</t>
+          <t>Al asegurarse de que las cuotas necesarias se incrementan en la región de recuperación ante desastres antes de probar la conmutación por error con ASR, puede evitar posibles restricciones de recursos durante el proceso de recuperación de las máquinas virtuales conmutadas por error.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1654,12 +1619,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Utilice eventos programados para prepararse para el mantenimiento de VM</t>
+          <t>Utilice eventos programados para prepararse para el mantenimiento de la máquina virtual</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Eventos programados es un servicio de metadatos de Azure que proporciona información sobre los próximos eventos de mantenimiento para máquinas virtuales (VM). Al aprovechar los eventos programados, puede preparar de forma proactiva sus aplicaciones para el mantenimiento de máquinas virtuales, minimizando las interrupciones y mejorando la disponibilidad de sus máquinas virtuales.</t>
+          <t>Eventos programados es un servicio de metadatos de Azure que proporciona información sobre los próximos eventos de mantenimiento de máquinas virtuales (VM). Al aprovechar los eventos programados, puede preparar de forma proactiva sus aplicaciones para el mantenimiento de las máquinas virtuales, minimizando las interrupciones y mejorando la disponibilidad de las máquinas virtuales.</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1709,7 +1674,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Use el almacenamiento con redundancia de zona (ZRS) en la región principal para escenarios que requieren alta disponibilidad y para restringir la replicación a un país o región determinados. Para la protección contra desastres regionales, utilice Geo-zone-redundant Storage (GZRS), que combina ZRS en la región primaria con la replicación geográfica en una región secundaria?.</t>
+          <t>Use el almacenamiento con redundancia de zona (ZRS) en la región primaria para escenarios que requieran alta disponibilidad y para restringir la replicación a un país o región determinados. Para protegerse contra desastres regionales, use el almacenamiento con redundancia de zona geográfica (GZRS), que combina ZRS en la región primaria con la replicación geográfica en una región secundaria.</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1754,12 +1719,12 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un bloqueo de eliminación para evitar la eliminación accidental o maliciosa de cuentas de almacenamiento</t>
+          <t>Aplique un bloqueo de eliminación para evitar la eliminación accidental o malintencionada de cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Asignar un bloqueo de eliminación a su cuenta de almacenamiento ayuda a proteger la disponibilidad de sus datos, minimizando el riesgo de interrupciones en sus operaciones comerciales.</t>
+          <t>La asignación de un bloqueo de eliminación a la cuenta de almacenamiento ayuda a proteger la disponibilidad de los datos, lo que minimiza el riesgo de interrupciones en las operaciones empresariales.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1804,12 +1769,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Habilitar la eliminación temporal para contenedores de cuentas de almacenamiento</t>
+          <t>Habilitación de la eliminación temporal para contenedores de cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>La eliminación temporal del contenedor protege sus datos de ser eliminados accidentalmente al mantener los datos eliminados en el sistema durante un período de tiempo específico.</t>
+          <t>La eliminación temporal de contenedores protege los datos contra la eliminación accidental al mantener los datos eliminados en el sistema durante un período de tiempo especificado.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1854,12 +1819,12 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Habilitar la eliminación temporal de blobs</t>
+          <t>Habilitación de la eliminación temporal para blobs</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>La eliminación temporal de blobs protege un blob individual y sus versiones, instantáneas y metadatos de eliminaciones o sobrescrituras accidentales al mantener los datos eliminados en el sistema durante un período de tiempo especificado.</t>
+          <t>La eliminación temporal de blobs protege un blob individual y sus versiones, instantáneas y metadatos de eliminaciones accidentales o sobrescrituras mediante el mantenimiento de los datos eliminados en el sistema durante un período de tiempo especificado.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1904,12 +1869,12 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Habilitar la eliminación de software mejorada de Azure Backup para mejorar la protección y recuperación de datos</t>
+          <t>Habilitación de la eliminación temporal mejorada de Azure Backup para mejorar la protección y recuperación de datos</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>La eliminación temporal mejorada de Azure Backup proporciona protección crítica contra ataques de ransomware al conservar las copias de seguridad eliminadas, lo que permite la recuperación de un posible cifrado o eliminación de ransomware.</t>
+          <t>La eliminación temporal mejorada de Azure Backup proporciona una protección crítica contra los ataques de ransomware al conservar las copias de seguridad eliminadas, lo que permite la recuperación de posibles cifrados o eliminados de ransomware.</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1954,7 +1919,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Implementar la autorización multiusuario para Copia de seguridad de Azure para garantizar el acceso seguro y controlado a los recursos de copia de seguridad</t>
+          <t>Implemente la autorización multiusuario para Azure Backup a fin de garantizar un acceso seguro y controlado a los recursos de copia de seguridad</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
@@ -2004,7 +1969,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Implemente almacenamiento inmutable para sus bóvedas para protegerse contra ransomware y evitar modificaciones no autorizadas en las copias de seguridad</t>
+          <t>Implemente el almacenamiento inmutable para sus bóvedas con el fin de protegerse contra el ransomware y evitar modificaciones no autorizadas en las copias de seguridad</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -2059,7 +2024,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Defina claramente los requisitos de continuidad empresarial y recuperación ante desastres de su organización para su entorno de Azure. Esto incluye identificar las aplicaciones, los datos y los servicios críticos que deben protegerse, así como especificar los objetivos y estrategias de recuperación deseados.</t>
+          <t>Defina claramente los requisitos de continuidad empresarial y recuperación ante desastres de su organización para su entorno de Azure. Esto incluye la identificación de las aplicaciones, los datos y los servicios críticos que deben protegerse, así como la especificación de los objetivos y estrategias de recuperación deseados.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2108,7 +2073,7 @@
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las arquitecturas de Azure están diseñadas centrándose en la confiabilidad. Considere la posibilidad de implementar mecanismos tolerantes a errores, redundancia y patrones de resistencia para minimizar el impacto de los errores y maximizar la disponibilidad de sus aplicaciones y servicios.</t>
+          <t>Asegúrese de que las arquitecturas de Azure estén diseñadas centrándose en la confiabilidad. Considere la posibilidad de implementar mecanismos de tolerancia a errores, redundancia y patrones de resistencia para minimizar el impacto de los errores y maximizar la disponibilidad de sus aplicaciones y servicios.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2147,17 +2112,17 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>DevOps (Operaciones de desarrollo)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implementar infraestructura como código (IaC) para una rápida recuperación de la infraestructura</t>
+          <t>Implemente la infraestructura como código (IaC) para una recuperación rápida de la infraestructura</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Las configuraciones de IaC pueden desempeñar un papel en su plan de recuperación ante desastres, especialmente en situaciones en las que el tiempo de recuperación no es sensible al tiempo. En el caso de recreación de infraestructura en una segunda región, IaC se puede utilizar para reproducir la infraestructura necesaria.</t>
+          <t>Las configuraciones de IaC pueden desempeñar un papel en el plan de recuperación ante desastres, especialmente en situaciones en las que el tiempo de recuperación no es sensible al tiempo. En el caso de la recreación de la infraestructura en una segunda región, la IaC se puede utilizar para reproducir la infraestructura necesaria.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2201,12 +2166,12 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Planificar la recuperación entre regiones aprovechando los pares de regiones</t>
+          <t>Planear la recuperación entre regiones aprovechando los pares de regiones</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Azure ofrece pares de regiones que están separados geográficamente y se pueden usar para la replicación entre regiones y la recuperación ante desastres. Estos pares de regiones proporcionan redundancia y protección contra desastres regionales o a gran escala.</t>
+          <t>Azure ofrece pares de regiones que están separados geográficamente y que se pueden usar para la replicación entre regiones y la recuperación ante desastres. Estos pares de regiones proporcionan redundancia y protección contra desastres regionales o a gran escala.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2245,7 +2210,7 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Gateways de aplicaciones</t>
+          <t>Puertas de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
@@ -2255,7 +2220,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Al implementar Application Gateway con un número mínimo de instancias de dos, tendrá al menos dos instancias disponibles en circunstancias normales. En el caso de que una de las instancias encuentre un problema, la otra instancia manejará el tráfico mientras se crea una nueva instancia. Este enfoque reduce significativamente el riesgo de interrupción del servicio y garantiza una experiencia perfecta para sus usuarios.</t>
+          <t>Al implementar una instancia de Application Gateway con un número mínimo de dos instancias, tendrá al menos dos instancias disponibles en circunstancias normales. En el caso de que una de las instancias encuentre un problema, la otra instancia manejará el tráfico mientras se crea una nueva instancia. Este enfoque reduce significativamente el riesgo de interrupción del servicio y garantiza una experiencia fluida para sus usuarios.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
@@ -2294,17 +2259,17 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Gateways de aplicaciones</t>
+          <t>Puertas de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Implementación de Azure Application Gateway v2 para la compatibilidad con la redundancia de zona</t>
+          <t>Implementación de Azure Application Gateway v2 para la compatibilidad con redundancia de zona</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>La SKU v2 ofrece varias ventajas y nuevas características críticas que mejoran la disponibilidad y la resistencia de la infraestructura de aplicaciones. Una característica notable admitida por la SKU v2 es la redundancia de zonas, que permite que una implementación de Application Gateway abarque varias zonas de disponibilidad.</t>
+          <t>La SKU v2 ofrece varias ventajas y nuevas características críticas que mejoran la disponibilidad y la resistencia de la infraestructura de aplicaciones. Una característica notable admitida por la SKU v2 es la redundancia de zona, que permite que una implementación de Application Gateway abarque varias zonas de disponibilidad.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2349,12 +2314,12 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Considere una solución de administración de tráfico redundante junto con Azure Front Door</t>
+          <t>Considere la posibilidad de una solución de administración de tráfico redundante junto con Azure Front Door</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Front Door proporciona funcionalidades de conmutación por error automática, lo que garantiza la continuidad en caso de que una región principal deje de estar disponible. Sin embargo, durante el proceso de conmutación por error, puede haber un breve período (normalmente de 20 a 60 segundos) en el que los clientes no pueden llegar a la aplicación. Es esencial revisar el contrato de nivel de servicio (SLA) de Azure Front Door para determinar si confiar únicamente en Front Door cumple los requisitos empresariales de alta disponibilidad. </t>
+          <t xml:space="preserve">Azure Front Door proporciona funcionalidades de conmutación automática por error, lo que garantiza la continuidad en caso de que una región primaria deje de estar disponible. Sin embargo, durante el proceso de conmutación por error, puede haber un breve período (normalmente de 20 a 60 segundos) en el que los clientes no pueden acceder a la aplicación. Es esencial revisar el Contrato de nivel de servicio (SLA) de Azure Front Door para determinar si confiar únicamente en Front Door cumple los requisitos empresariales de alta disponibilidad. </t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2404,7 +2369,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Al implementar el Administrador de tráfico, puede configurarlo para supervisar continuamente el estado de los extremos de la aplicación y redirigir automáticamente el tráfico a un extremo alternativo cuando sea necesario. Esta automatización minimiza el tiempo de inactividad y proporciona una experiencia más fluida para los usuarios durante los escenarios de recuperación ante desastres.</t>
+          <t>Mediante la implementación del Administrador de tráfico, puede configurarlo para supervisar continuamente el estado de los puntos de conexión de la aplicación y redirigir automáticamente el tráfico a un punto de conexión alternativo cuando sea necesario. Esta automatización minimiza el tiempo de inactividad y proporciona una experiencia más fluida para los usuarios durante los escenarios de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2449,12 +2414,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Implementación de la conmutación por error de DNS mediante solucionadores privados de DNS de Azure</t>
+          <t>Implementación de la conmutación por error de DNS mediante resolución privada de DNS de Azure</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Para eliminar un único punto de error en los servicios DNS locales y garantizar una resolución DNS confiable durante los escenarios de continuidad empresarial y recuperación ante desastres, se recomienda usar Azure DNS Private Resolvers en varias regiones. Al implementar dos o más solucionadores privados de DNS de Azure en diferentes regiones, puede habilitar la conmutación por error de DNS y lograr resistencia en la infraestructura de DNS.</t>
+          <t>Para eliminar un único punto de error en los servicios DNS locales y garantizar una resolución de DNS confiable durante los escenarios de continuidad empresarial y recuperación ante desastres, se recomienda usar Azure DNS Private Resolvers en varias regiones. Al implementar dos o más solucionadores privados de Azure DNS en diferentes regiones, puede habilitar la conmutación por error de DNS y lograr resistencia en la infraestructura de DNS.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2499,7 +2464,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Usar clústeres de puerta de enlace de datos locales para garantizar una alta disponibilidad de los datos críticos para el negocio</t>
+          <t>Use clústeres de puerta de enlace de datos locales para garantizar una alta disponibilidad de los datos críticos para la empresa</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
@@ -2549,12 +2514,12 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Garantice la redundancia tanto dentro de la red de socios como de la red de clientes al usar ExpressRoute para alta disponibilidad</t>
+          <t>Garantice la redundancia dentro de la red del asociado y la red del cliente al usar ExpressRoute para alta disponibilidad</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Al usar ExpressRoute, es importante diseñar para una alta disponibilidad mediante la incorporación de redundancia en las redes de socios y clientes. Esto puede incluir varios circuitos ExpressRoute, conexiones redundantes de la red a Microsoft y garantizar que el equipo de red local tenga conexiones redundantes.</t>
+          <t>Al usar ExpressRoute, es importante diseñar para la alta disponibilidad mediante la incorporación de redundancia en las redes del asociado y del cliente. Esto puede incluir varios circuitos ExpressRoute, conexiones redundantes de la red a Microsoft y asegurarse de que el equipo de red local tenga conexiones redundantes.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2599,12 +2564,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Cuando se utilizan varios circuitos ExpressRoute, asegúrese de que el enrutamiento permite un primario y una copia de seguridad</t>
+          <t>Al usar varios circuitos ExpressRoute, asegúrese de que el enrutamiento permita una copia de seguridad y principal.</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>El circuito primario debe manejar el tráfico regular mientras que el circuito de respaldo permanece listo para hacerse cargo si el circuito primario falla. Utilice atributos BGP para influir en el enrutamiento y designar sus circuitos primarios y de respaldo de manera efectiva.</t>
+          <t>El circuito primario debe manejar el tráfico regular mientras que el circuito de respaldo permanece listo para tomar el control si falla el circuito primario. Utilice los atributos de BGP para influir en el enrutamiento y designar sus circuitos primarios y de respaldo de manera efectiva.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2649,12 +2614,12 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar VPN de sitio a sitio como copia de seguridad para el emparejamiento privado de ExpressRoute</t>
+          <t>Considere la posibilidad de implementar una VPN de sitio a sitio como copia de seguridad para el emparejamiento privado de ExpressRoute</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>La conexión VPN S2S puede proporcionar una solución de copia de seguridad rentable y resistente en caso de que se produzca un error en el circuito ExpressRoute. Al usar S2S VPN como conmutación por error, puede mantener la conectividad con los recursos de Azure sin depender únicamente de ExpressRoute.</t>
+          <t>La conexión VPN S2S puede proporcionar una solución de copia de seguridad rentable y resistente en caso de que se produzca un error en el circuito ExpressRoute. Mediante el uso de VPN de S2S como conmutación por error, puede mantener la conectividad con los recursos de Azure sin depender únicamente de ExpressRoute.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2694,17 +2659,17 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Balanceadores de carga</t>
+          <t>Equilibradores de carga</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la SKU estándar para equilibradores de carga que gestionan el tráfico a las aplicaciones de producción</t>
+          <t>Aproveche la SKU estándar para equilibradores de carga que controlan el tráfico a las aplicaciones de producción</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>La SKU del equilibrador de carga estándar ofrece un SLA del 99,99 % y un mayor nivel de disponibilidad del servicio en comparación con la SKU del equilibrador de carga básico.</t>
+          <t>La SKU de Standard Load Balancer ofrece un SLA del 99,99 % y un mayor nivel de disponibilidad del servicio en comparación con la SKU de Basic Load Balancer.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2744,17 +2709,17 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Balanceadores de carga</t>
+          <t>Equilibradores de carga</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Para los equilibradores de carga, considere la posibilidad de usar un front-end con redundancia de zona con varios recursos zonales en el back-end</t>
+          <t>En el caso de los equilibradores de carga, considere la posibilidad de usar un front-end con redundancia de zona con varios recursos zonales en el back-end</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al configurar el equilibrador de carga con un frontend con redundancia de zona, puede servir recursos zonales en cualquier zona con una sola dirección IP. Mientras al menos una zona permanezca en buen estado dentro de la región, la dirección IP asociada con el frontend puede sobrevivir a uno o más errores de zona. Se recomienda tener varios recursos zonales, como máquinas virtuales de diferentes zonas, en el grupo back-end del equilibrador de carga. </t>
+          <t xml:space="preserve">Al configurar el equilibrador de carga con un frontend con redundancia de zona, puede servir recursos zonales en cualquier zona con una sola dirección IP. Siempre que al menos una zona permanezca en buen estado dentro de la región, la dirección IP asociada con el front-end puede sobrevivir a uno o más errores de zona. Se recomienda tener varios recursos zonales, como máquinas virtuales de diferentes zonas, en el grupo de back-end del equilibrador de carga. </t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
@@ -2794,17 +2759,17 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Balanceadores de carga</t>
+          <t>Equilibradores de carga</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Seleccione el protocolo correcto, los intervalos y tiempos de espera adecuados, las rutas representativas y las respuestas del sondeo al definir los sondeos de estado del equilibrador de carga</t>
+          <t>Seleccione el protocolo correcto, los intervalos y tiempos de espera adecuados, las rutas representativas y las respuestas de sondeo al definir los sondeos de estado del equilibrador de carga</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Al diseñar sondeos de estado para el equilibrador de carga de Azure, es importante seguir los procedimientos recomendados para garantizar una supervisión confiable y precisa de las instancias back-end.</t>
+          <t>Al diseñar sondeos de estado para Azure Load Balancer, es importante seguir los procedimientos recomendados para garantizar una supervisión confiable y precisa de las instancias de back-end.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2844,17 +2809,17 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>NVAs</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Implementar dispositivos virtuales de red (NVA) en una configuración compatible con el proveedor para alta disponibilidad</t>
+          <t>Implemente aplicaciones virtuales de red (NVA) en una configuración compatible con el proveedor para alta disponibilidad</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Al elegir la mejor opción para implementar NVA en Azure, es crucial tener en cuenta las recomendaciones del proveedor y validar que el diseño específico ha sido examinado y validado por el proveedor de NVA. El proveedor también debe proporcionar la configuración de NVA necesaria para una integración perfecta en Azure.</t>
+          <t>Al elegir la mejor opción para implementar aplicaciones virtuales de red en Azure, es fundamental tener en cuenta las recomendaciones del proveedor y validar que el proveedor de aplicaciones virtuales de red haya examinado y validado el diseño específico. El proveedor también debe proporcionar la configuración de NVA necesaria para una integración sin problemas en Azure.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2899,12 +2864,12 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure VPN Gateways en un modo activo-activo para garantizar una alta disponibilidad y redundancia para las conexiones VPN.</t>
+          <t>Implemente puertas de enlace de VPN de Azure en modo activo-activo para garantizar una alta disponibilidad y redundancia para las conexiones de VPN.</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>Al implementar puertas de enlace VPN en modo activo-activo, puede distribuir el tráfico VPN entre varias puertas de enlace, mejorando la confiabilidad y asegurando una conectividad continua en caso de fallas o mantenimiento.</t>
+          <t>Al implementar puertas de enlace VPN en un modo activo-activo, puede distribuir el tráfico VPN a través de varias puertas de enlace, lo que mejora la confiabilidad y garantiza la conectividad continua en caso de fallas o mantenimiento.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2949,12 +2914,12 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Use SKU con redundancia de zona al implementar puertas de enlace VPN para mejorar la resistencia y protegerse contra errores a nivel de zona</t>
+          <t>Use SKU con redundancia de zona al implementar puertas de enlace de VPN para mejorar la resistencia y protegerse contra errores de nivel de zona</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>Las SKU con redundancia de zona garantizan que las puertas de enlace VPN estén separadas física y lógicamente dentro de una región, lo que proporciona resistencia y escalabilidad. Esta configuración de implementación protege la conectividad de red local con Azure de errores de nivel de zona.</t>
+          <t>Las SKU con redundancia de zona garantizan que las puertas de enlace de VPN estén separadas física y lógicamente dentro de una región, lo que proporciona resistencia y escalabilidad. Esta configuración de implementación protege la conectividad de red local con Azure frente a errores de nivel de zona.</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -6972,20 +6937,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -6995,121 +7058,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7273,7 +7221,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7295,7 +7243,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
+          <t>Recomendación comprendida, pero no necesaria por los requisitos actuales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
